--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2514226.757679261</v>
+        <v>2511891.64647728</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>12.80429015312679</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>144.6749589756785</v>
+        <v>115.7664925502709</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>117.2278100992625</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>71.36151060513997</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.9578218484145</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.7307820829407</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>22.05778319390686</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>69.25160695998034</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818279</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505425</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.158427600213</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1553.195910659802</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.930212053051</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1194.930212053051</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>783.9443072634438</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>368.2395569877326</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>64.18041298530289</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.758267664335</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1387.726391392425</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1387.726391392425</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1387.726391392425</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1387.726391392425</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1387.726391392425</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>1159.736840494407</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>938.9442613508772</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>741.125668660897</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>741.125668660897</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087291</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2443.927399006962</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2443.927399006962</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.927399006962</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.927399006962</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.927399006962</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.927399006962</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>2443.927399006962</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1011.026595295463</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>842.0904123675563</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>691.9737729552205</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>544.0606793728274</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>397.170731874917</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>229.1842671831956</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.986125864408</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269233</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X7" t="n">
-        <v>1413.467639269233</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y7" t="n">
-        <v>1192.675060125703</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>528.0429005162108</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3303.325232524415</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1015.34761180106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>846.4114288731527</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>696.2947894608169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>548.3816958784238</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4917483805134</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>233.7889117552324</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1645.778206672847</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1417.788655774829</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1196.996076631299</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,22 +5121,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101803</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,22 +6716,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019042</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921331</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002957</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664512</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580206</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26353,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309567</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744299</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744264</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744324</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744264</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744348</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744299</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744293</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706904.3213479277</v>
+        <v>-706904.3213479274</v>
       </c>
       <c r="C6" t="n">
-        <v>407847.4622279922</v>
+        <v>407847.462227992</v>
       </c>
       <c r="D6" t="n">
         <v>247831.999479993</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.366736748</v>
+        <v>190241.6288113126</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441033</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="J6" t="n">
-        <v>348083.6507341207</v>
+        <v>348048.9128086853</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441033</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="L6" t="n">
-        <v>467394.8585359129</v>
+        <v>467360.1206104767</v>
       </c>
       <c r="M6" t="n">
-        <v>430633.8006085916</v>
+        <v>430599.0626831559</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441036</v>
+        <v>515654.0906186677</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022532</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022532</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.90562251934368</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.98750138605894</v>
+        <v>78.89596781146655</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.39257787736767</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.224405299531867</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>75.88999854998887</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>4.704638513322948</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.1909435705127</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>181.8601869457133</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75.50340795434045</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241812</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096869</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,25 +34781,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>577.7882979947782</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>528.9386420741737</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408479</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263536</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
